--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H2">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I2">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J2">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N2">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O2">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P2">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q2">
-        <v>76.05290218084262</v>
+        <v>146.6145881015387</v>
       </c>
       <c r="R2">
-        <v>76.05290218084262</v>
+        <v>1319.531292913848</v>
       </c>
       <c r="S2">
-        <v>0.02668485619982894</v>
+        <v>0.04252588215020576</v>
       </c>
       <c r="T2">
-        <v>0.02668485619982894</v>
+        <v>0.04252588215020576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H3">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I3">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J3">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N3">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O3">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P3">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q3">
-        <v>0.2461015746171798</v>
+        <v>0.4630217215011111</v>
       </c>
       <c r="R3">
-        <v>0.2461015746171798</v>
+        <v>4.16719549351</v>
       </c>
       <c r="S3">
-        <v>8.635022386910514E-05</v>
+        <v>0.0001343004636612624</v>
       </c>
       <c r="T3">
-        <v>8.635022386910514E-05</v>
+        <v>0.0001343004636612623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H4">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I4">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J4">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N4">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O4">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P4">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q4">
-        <v>0.4853665421319132</v>
+        <v>1.437943002855778</v>
       </c>
       <c r="R4">
-        <v>0.4853665421319132</v>
+        <v>12.941487025702</v>
       </c>
       <c r="S4">
-        <v>0.0001703016717258273</v>
+        <v>0.0004170785149688393</v>
       </c>
       <c r="T4">
-        <v>0.0001703016717258273</v>
+        <v>0.0004170785149688392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H5">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I5">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J5">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N5">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O5">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P5">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q5">
-        <v>1.124696496791</v>
+        <v>2.742664740626445</v>
       </c>
       <c r="R5">
-        <v>1.124696496791</v>
+        <v>24.683982665638</v>
       </c>
       <c r="S5">
-        <v>0.0003946248390883785</v>
+        <v>0.0007955159104401617</v>
       </c>
       <c r="T5">
-        <v>0.0003946248390883785</v>
+        <v>0.0007955159104401616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H6">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I6">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J6">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N6">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O6">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P6">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q6">
-        <v>2.07526062547658</v>
+        <v>3.793136154808667</v>
       </c>
       <c r="R6">
-        <v>2.07526062547658</v>
+        <v>34.13822539327801</v>
       </c>
       <c r="S6">
-        <v>0.0007281514548429561</v>
+        <v>0.001100207443118583</v>
       </c>
       <c r="T6">
-        <v>0.0007281514548429561</v>
+        <v>0.001100207443118583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H7">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I7">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J7">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N7">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O7">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P7">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q7">
-        <v>1.234804417748608</v>
+        <v>2.339501247991778</v>
       </c>
       <c r="R7">
-        <v>1.234804417748608</v>
+        <v>21.055511231926</v>
       </c>
       <c r="S7">
-        <v>0.000433258657824569</v>
+        <v>0.0006785774570635208</v>
       </c>
       <c r="T7">
-        <v>0.000433258657824569</v>
+        <v>0.0006785774570635208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H8">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I8">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J8">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N8">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O8">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P8">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q8">
-        <v>633.3551693448858</v>
+        <v>702.2127216147587</v>
       </c>
       <c r="R8">
-        <v>633.3551693448858</v>
+        <v>6319.914494532829</v>
       </c>
       <c r="S8">
-        <v>0.2222267807374202</v>
+        <v>0.2036783367224225</v>
       </c>
       <c r="T8">
-        <v>0.2222267807374202</v>
+        <v>0.2036783367224225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H9">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I9">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J9">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N9">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O9">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P9">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q9">
-        <v>2.049490551945956</v>
+        <v>2.217649331026111</v>
       </c>
       <c r="R9">
-        <v>2.049490551945956</v>
+        <v>19.958843979235</v>
       </c>
       <c r="S9">
-        <v>0.0007191094500449205</v>
+        <v>0.0006432340418702806</v>
       </c>
       <c r="T9">
-        <v>0.0007191094500449205</v>
+        <v>0.0006432340418702804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H10">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I10">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J10">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N10">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O10">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P10">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q10">
-        <v>4.042047044507587</v>
+        <v>6.887049117260779</v>
       </c>
       <c r="R10">
-        <v>4.042047044507587</v>
+        <v>61.98344205534701</v>
       </c>
       <c r="S10">
-        <v>0.001418242316107147</v>
+        <v>0.001997603669018778</v>
       </c>
       <c r="T10">
-        <v>0.001418242316107147</v>
+        <v>0.001997603669018778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H11">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I11">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J11">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N11">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O11">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P11">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q11">
-        <v>9.36627426120889</v>
+        <v>13.13603303007145</v>
       </c>
       <c r="R11">
-        <v>9.36627426120889</v>
+        <v>118.224297270643</v>
       </c>
       <c r="S11">
-        <v>0.003286366129647534</v>
+        <v>0.003810135129057912</v>
       </c>
       <c r="T11">
-        <v>0.003286366129647534</v>
+        <v>0.003810135129057911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H12">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I12">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J12">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N12">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O12">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P12">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q12">
-        <v>17.28240484180468</v>
+        <v>18.16728128635367</v>
       </c>
       <c r="R12">
-        <v>17.28240484180468</v>
+        <v>163.505531577183</v>
       </c>
       <c r="S12">
-        <v>0.006063917020473074</v>
+        <v>0.005269459696862231</v>
       </c>
       <c r="T12">
-        <v>0.006063917020473074</v>
+        <v>0.00526945969686223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H13">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I13">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J13">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N13">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O13">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P13">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q13">
-        <v>10.28323362665814</v>
+        <v>11.20507556475678</v>
       </c>
       <c r="R13">
-        <v>10.28323362665814</v>
+        <v>100.845680082811</v>
       </c>
       <c r="S13">
-        <v>0.00360810176505979</v>
+        <v>0.003250056690272803</v>
       </c>
       <c r="T13">
-        <v>0.00360810176505979</v>
+        <v>0.003250056690272803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H14">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I14">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J14">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N14">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O14">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P14">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q14">
-        <v>476.2742888024962</v>
+        <v>623.487773309996</v>
       </c>
       <c r="R14">
-        <v>476.2742888024962</v>
+        <v>5611.389959789964</v>
       </c>
       <c r="S14">
-        <v>0.1671114519489281</v>
+        <v>0.1808439931742156</v>
       </c>
       <c r="T14">
-        <v>0.1671114519489281</v>
+        <v>0.1808439931742156</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H15">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I15">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J15">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N15">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O15">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P15">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q15">
-        <v>1.54118842362201</v>
+        <v>1.969029043228333</v>
       </c>
       <c r="R15">
-        <v>1.54118842362201</v>
+        <v>17.721261389055</v>
       </c>
       <c r="S15">
-        <v>0.0005407603165938607</v>
+        <v>0.0005711211832799996</v>
       </c>
       <c r="T15">
-        <v>0.0005407603165938607</v>
+        <v>0.0005711211832799994</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H16">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I16">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J16">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N16">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O16">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P16">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q16">
-        <v>3.039563225512699</v>
+        <v>6.114943216812334</v>
       </c>
       <c r="R16">
-        <v>3.039563225512699</v>
+        <v>55.034488951311</v>
       </c>
       <c r="S16">
-        <v>0.001066498519546647</v>
+        <v>0.001773652662811883</v>
       </c>
       <c r="T16">
-        <v>0.001066498519546647</v>
+        <v>0.001773652662811882</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H17">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I17">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J17">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N17">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O17">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P17">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q17">
-        <v>7.043308128519044</v>
+        <v>11.66335461028434</v>
       </c>
       <c r="R17">
-        <v>7.043308128519044</v>
+        <v>104.970191492559</v>
       </c>
       <c r="S17">
-        <v>0.002471301675427195</v>
+        <v>0.003382981530388417</v>
       </c>
       <c r="T17">
-        <v>0.002471301675427195</v>
+        <v>0.003382981530388416</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H18">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I18">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J18">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N18">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O18">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P18">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q18">
-        <v>12.99612835455546</v>
+        <v>16.130550483731</v>
       </c>
       <c r="R18">
-        <v>12.99612835455546</v>
+        <v>145.174954353579</v>
       </c>
       <c r="S18">
-        <v>0.00455998135970134</v>
+        <v>0.004678701470102143</v>
       </c>
       <c r="T18">
-        <v>0.00455998135970134</v>
+        <v>0.004678701470102142</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H19">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I19">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J19">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N19">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O19">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P19">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q19">
-        <v>7.732848832973792</v>
+        <v>9.948876456660333</v>
       </c>
       <c r="R19">
-        <v>7.732848832973792</v>
+        <v>89.53988810994301</v>
       </c>
       <c r="S19">
-        <v>0.002713242403718543</v>
+        <v>0.002885693389732027</v>
       </c>
       <c r="T19">
-        <v>0.002713242403718543</v>
+        <v>0.002885693389732027</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H20">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I20">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J20">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N20">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O20">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P20">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q20">
-        <v>719.57726983009</v>
+        <v>816.1904632900106</v>
       </c>
       <c r="R20">
-        <v>719.57726983009</v>
+        <v>7345.714169610095</v>
       </c>
       <c r="S20">
-        <v>0.2524797268672583</v>
+        <v>0.2367378301397593</v>
       </c>
       <c r="T20">
-        <v>0.2524797268672583</v>
+        <v>0.2367378301397593</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H21">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I21">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J21">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N21">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O21">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P21">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q21">
-        <v>2.328498901236202</v>
+        <v>2.577601030557778</v>
       </c>
       <c r="R21">
-        <v>2.328498901236202</v>
+        <v>23.19840927502</v>
       </c>
       <c r="S21">
-        <v>0.0008170057494084614</v>
+        <v>0.0007476388200868165</v>
       </c>
       <c r="T21">
-        <v>0.0008170057494084614</v>
+        <v>0.0007476388200868164</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H22">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I22">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J22">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N22">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O22">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P22">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q22">
-        <v>4.59231299843979</v>
+        <v>8.004901701000446</v>
       </c>
       <c r="R22">
-        <v>4.59231299843979</v>
+        <v>72.044115309004</v>
       </c>
       <c r="S22">
-        <v>0.00161131539328475</v>
+        <v>0.002321839257393474</v>
       </c>
       <c r="T22">
-        <v>0.00161131539328475</v>
+        <v>0.002321839257393473</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H23">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I23">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J23">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N23">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O23">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P23">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q23">
-        <v>10.64135636302115</v>
+        <v>15.26817238507511</v>
       </c>
       <c r="R23">
-        <v>10.64135636302115</v>
+        <v>137.413551465676</v>
       </c>
       <c r="S23">
-        <v>0.003733757110848071</v>
+        <v>0.004428566815241191</v>
       </c>
       <c r="T23">
-        <v>0.003733757110848071</v>
+        <v>0.004428566815241191</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H24">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I24">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J24">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N24">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O24">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P24">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q24">
-        <v>19.63515306116063</v>
+        <v>21.11605397255067</v>
       </c>
       <c r="R24">
-        <v>19.63515306116063</v>
+        <v>190.044485752956</v>
       </c>
       <c r="S24">
-        <v>0.006889431183741017</v>
+        <v>0.006124757667989861</v>
       </c>
       <c r="T24">
-        <v>0.006889431183741017</v>
+        <v>0.006124757667989861</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H25">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I25">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J25">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N25">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O25">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P25">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q25">
-        <v>11.68314641806655</v>
+        <v>13.02379682807244</v>
       </c>
       <c r="R25">
-        <v>11.68314641806655</v>
+        <v>117.214171452652</v>
       </c>
       <c r="S25">
-        <v>0.004099292376592359</v>
+        <v>0.003777580773035094</v>
       </c>
       <c r="T25">
-        <v>0.004099292376592359</v>
+        <v>0.003777580773035094</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H26">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I26">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J26">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N26">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O26">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P26">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q26">
-        <v>207.8391931274775</v>
+        <v>256.0972045525133</v>
       </c>
       <c r="R26">
-        <v>207.8391931274775</v>
+        <v>2304.87484097262</v>
       </c>
       <c r="S26">
-        <v>0.07292501432893726</v>
+        <v>0.07428155465849598</v>
       </c>
       <c r="T26">
-        <v>0.07292501432893726</v>
+        <v>0.07428155465849599</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H27">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I27">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J27">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N27">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O27">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P27">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q27">
-        <v>0.6725522791255253</v>
+        <v>0.8087774215305555</v>
       </c>
       <c r="R27">
-        <v>0.6725522791255253</v>
+        <v>7.278996793775</v>
       </c>
       <c r="S27">
-        <v>0.0002359799605366357</v>
+        <v>0.000234587661153718</v>
       </c>
       <c r="T27">
-        <v>0.0002359799605366357</v>
+        <v>0.000234587661153718</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H28">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I28">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J28">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N28">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O28">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P28">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q28">
-        <v>1.326421314572548</v>
+        <v>2.511709019583889</v>
       </c>
       <c r="R28">
-        <v>1.326421314572548</v>
+        <v>22.605381176255</v>
       </c>
       <c r="S28">
-        <v>0.0004654044885176312</v>
+        <v>0.0007285266980967793</v>
       </c>
       <c r="T28">
-        <v>0.0004654044885176312</v>
+        <v>0.0007285266980967793</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H29">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I29">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J29">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N29">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O29">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P29">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q29">
-        <v>3.073597531498595</v>
+        <v>4.790715454677223</v>
       </c>
       <c r="R29">
-        <v>3.073597531498595</v>
+        <v>43.116439092095</v>
       </c>
       <c r="S29">
-        <v>0.001078440214538575</v>
+        <v>0.00138955750228401</v>
       </c>
       <c r="T29">
-        <v>0.001078440214538575</v>
+        <v>0.00138955750228401</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H30">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I30">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J30">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N30">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O30">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P30">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q30">
-        <v>5.67132195563898</v>
+        <v>6.625613305688334</v>
       </c>
       <c r="R30">
-        <v>5.67132195563898</v>
+        <v>59.63051975119501</v>
       </c>
       <c r="S30">
-        <v>0.001989909740581606</v>
+        <v>0.001921773639710415</v>
       </c>
       <c r="T30">
-        <v>0.001989909740581606</v>
+        <v>0.001921773639710415</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H31">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I31">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J31">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N31">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O31">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P31">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q31">
-        <v>3.374503095816928</v>
+        <v>4.086494648423889</v>
       </c>
       <c r="R31">
-        <v>3.374503095816928</v>
+        <v>36.77845183581501</v>
       </c>
       <c r="S31">
-        <v>0.001184019639955765</v>
+        <v>0.001185296716217402</v>
       </c>
       <c r="T31">
-        <v>0.001184019639955765</v>
+        <v>0.001185296716217402</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H32">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I32">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J32">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>128.6232388238</v>
+        <v>142.563596</v>
       </c>
       <c r="N32">
-        <v>128.6232388238</v>
+        <v>427.690788</v>
       </c>
       <c r="O32">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005318</v>
       </c>
       <c r="P32">
-        <v>0.936391469104905</v>
+        <v>0.9315318106005319</v>
       </c>
       <c r="Q32">
-        <v>555.6541304313564</v>
+        <v>666.9979452032027</v>
       </c>
       <c r="R32">
-        <v>555.6541304313564</v>
+        <v>6002.981506828824</v>
       </c>
       <c r="S32">
-        <v>0.194963639022532</v>
+        <v>0.1934642137554327</v>
       </c>
       <c r="T32">
-        <v>0.194963639022532</v>
+        <v>0.1934642137554327</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H33">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I33">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J33">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.416215301444109</v>
+        <v>0.4502283333333333</v>
       </c>
       <c r="N33">
-        <v>0.416215301444109</v>
+        <v>1.350685</v>
       </c>
       <c r="O33">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="P33">
-        <v>0.003030093637410986</v>
+        <v>0.002941859116219682</v>
       </c>
       <c r="Q33">
-        <v>1.79805572858392</v>
+        <v>2.106437980181111</v>
       </c>
       <c r="R33">
-        <v>1.79805572858392</v>
+        <v>18.95794182163</v>
       </c>
       <c r="S33">
-        <v>0.0006308879369580024</v>
+        <v>0.0006109769461676051</v>
       </c>
       <c r="T33">
-        <v>0.0006308879369580024</v>
+        <v>0.0006109769461676049</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H34">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I34">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J34">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.8208683018731761</v>
+        <v>1.398212333333333</v>
       </c>
       <c r="N34">
-        <v>0.8208683018731761</v>
+        <v>4.194637</v>
       </c>
       <c r="O34">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020016</v>
       </c>
       <c r="P34">
-        <v>0.005976012438822547</v>
+        <v>0.009136128037020014</v>
       </c>
       <c r="Q34">
-        <v>3.546162160485149</v>
+        <v>6.541675290591779</v>
       </c>
       <c r="R34">
-        <v>3.546162160485149</v>
+        <v>58.875077615326</v>
       </c>
       <c r="S34">
-        <v>0.001244250049640544</v>
+        <v>0.001897427234730263</v>
       </c>
       <c r="T34">
-        <v>0.001244250049640544</v>
+        <v>0.001897427234730262</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H35">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I35">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J35">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.90212473111223</v>
+        <v>2.666884333333333</v>
       </c>
       <c r="N35">
-        <v>1.90212473111223</v>
+        <v>8.000653</v>
       </c>
       <c r="O35">
-        <v>0.01384767937485165</v>
+        <v>0.01742582020512581</v>
       </c>
       <c r="P35">
-        <v>0.01384767937485165</v>
+        <v>0.0174258202051258</v>
       </c>
       <c r="Q35">
-        <v>8.217204551084391</v>
+        <v>12.47728326401045</v>
       </c>
       <c r="R35">
-        <v>8.217204551084391</v>
+        <v>112.295549376094</v>
       </c>
       <c r="S35">
-        <v>0.002883189405301895</v>
+        <v>0.003619063317714115</v>
       </c>
       <c r="T35">
-        <v>0.002883189405301895</v>
+        <v>0.003619063317714113</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H36">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I36">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J36">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.50975091545606</v>
+        <v>3.688331</v>
       </c>
       <c r="N36">
-        <v>3.50975091545606</v>
+        <v>11.064993</v>
       </c>
       <c r="O36">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="P36">
-        <v>0.02555137660946587</v>
+        <v>0.02410010515253888</v>
       </c>
       <c r="Q36">
-        <v>15.16217139913549</v>
+        <v>17.25622295771267</v>
       </c>
       <c r="R36">
-        <v>15.16217139913549</v>
+        <v>155.306006619414</v>
       </c>
       <c r="S36">
-        <v>0.005319985850125871</v>
+        <v>0.005005205234755645</v>
       </c>
       <c r="T36">
-        <v>0.005319985850125871</v>
+        <v>0.005005205234755644</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H37">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I37">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J37">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.08834296878114</v>
+        <v>2.274860333333333</v>
       </c>
       <c r="N37">
-        <v>2.08834296878114</v>
+        <v>6.824581</v>
       </c>
       <c r="O37">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="P37">
-        <v>0.015203368834544</v>
+        <v>0.01486427688856368</v>
       </c>
       <c r="Q37">
-        <v>9.021669855088472</v>
+        <v>10.64316003895978</v>
       </c>
       <c r="R37">
-        <v>9.021669855088472</v>
+        <v>95.788440350638</v>
       </c>
       <c r="S37">
-        <v>0.003165453991392971</v>
+        <v>0.003087071862242833</v>
       </c>
       <c r="T37">
-        <v>0.003165453991392971</v>
+        <v>0.003087071862242833</v>
       </c>
     </row>
   </sheetData>
